--- a/td_template_import/metalai.xlsx
+++ b/td_template_import/metalai.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Loại màng</t>
   </si>
@@ -30,22 +33,19 @@
     <t>Khổ màng</t>
   </si>
   <si>
-    <t>ĐVT</t>
+    <t>Số cuộn</t>
+  </si>
+  <si>
+    <t>Nhiệt</t>
+  </si>
+  <si>
+    <t>Nước</t>
   </si>
   <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Nhiệt</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Nước</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bạc</t>
+    <t>bạc</t>
   </si>
 </sst>
 </file>
@@ -115,9 +115,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -130,7 +128,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -142,16 +142,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,70 +437,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>39.5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="D3" s="2">
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>61.6</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,285 +508,250 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>86</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>100.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>70</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>96</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>59.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>61.48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>100.5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>68.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>101.54</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>71.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>68.8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>73.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>71</v>
+        <v>75.98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>70.73</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>87.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>268.14999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>88.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>72.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>74.5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>87.5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>263.57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>88.5</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E19"/>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
